--- a/templates/ServicesRecipient.xlsx
+++ b/templates/ServicesRecipient.xlsx
@@ -13,8 +13,9 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$C$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$C$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">Работник</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Тип услуги</t>
   </si>
@@ -114,13 +112,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -164,39 +158,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="63.5222672064777"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:C1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
